--- a/vaccine.web/vaccine.web/clientapps/public/活動批次新增.xlsx
+++ b/vaccine.web/vaccine.web/clientapps/public/活動批次新增.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>場次標題</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,64 @@
   <si>
     <t>測試-台北診所</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-15</t>
   </si>
 </sst>
 </file>
@@ -272,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,19 +343,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -603,12 +655,12 @@
     <col min="14" max="14" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
@@ -681,11 +733,11 @@
       <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.75</v>
+      <c r="I4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>22</v>
@@ -728,17 +780,17 @@
       <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="K5" s="6">
-        <v>44197</v>
-      </c>
-      <c r="L5" s="6">
-        <v>44206</v>
+      <c r="I5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="M5">
         <v>500</v>
@@ -772,17 +824,17 @@
       <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="K6" s="6">
-        <v>44197</v>
-      </c>
-      <c r="L6" s="6">
-        <v>44206</v>
+      <c r="I6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="M6">
         <v>500</v>
@@ -816,17 +868,17 @@
       <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="K7" s="6">
-        <v>44197</v>
-      </c>
-      <c r="L7" s="6">
-        <v>44206</v>
+      <c r="I7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="M7">
         <v>500</v>
@@ -860,17 +912,17 @@
       <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="K8" s="6">
-        <v>44197</v>
-      </c>
-      <c r="L8" s="6">
-        <v>44206</v>
+      <c r="I8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="M8">
         <v>500</v>
@@ -904,17 +956,17 @@
       <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="K9" s="6">
-        <v>44197</v>
-      </c>
-      <c r="L9" s="6">
-        <v>44206</v>
+      <c r="I9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="M9">
         <v>500</v>
@@ -948,17 +1000,17 @@
       <c r="H10" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="6">
-        <v>44197</v>
-      </c>
-      <c r="L10" s="6">
-        <v>44206</v>
+      <c r="I10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="M10">
         <v>500</v>
